--- a/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/storageLocationImportSchema_en.xlsx
+++ b/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/storageLocationImportSchema_en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AA9489-74AD-A046-B364-ABBD557B6B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B143B7-F040-F34D-914B-A2BC71F6C3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{2222F829-432A-A44B-82E1-02E1D4AC7904}"/>
   </bookViews>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{48087E59-DF0A-084B-9F51-C5D08BF7EA9A}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D9148CF2-3356-F745-8E92-E15A26780129}">
       <text>
         <r>
           <rPr>
@@ -119,20 +119,11 @@
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
-          <t>Optional data</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t>. If You want to store only one specific product in given storage area, enter product number defined in qcadoo.</t>
+          <t>Optional data. Enter 'yes' if You want only pallets to be stored in given area.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D9148CF2-3356-F745-8E92-E15A26780129}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4971F4A8-81C2-584D-97B4-A023E61C3013}">
       <text>
         <r>
           <rPr>
@@ -152,54 +143,30 @@
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
-          <t>Optional data. Enter 'yes' if You want only pallets to be stored in given area.</t>
+          <t>Optional data.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+            <family val="2"/>
+          </rPr>
+          <t>If You put 'yes' for pallet place, You can define the maximum number of pallets that can be stored in given area. You can use only positive integers.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{4971F4A8-81C2-584D-97B4-A023E61C3013}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">qcadoo MES:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t>Optional data.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-            <family val="2"/>
-          </rPr>
-          <t>If You put 'yes' for pallet place, You can define the maximum number of pallets that can be stored in given area. You can use only positive integers.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FB3D2011-E190-1042-99EC-C86A3931B882}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FB3D2011-E190-1042-99EC-C86A3931B882}">
       <text>
         <r>
           <rPr>
@@ -228,15 +195,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Storage location</t>
   </si>
   <si>
     <t>Location number</t>
-  </si>
-  <si>
-    <t>Product number</t>
   </si>
   <si>
     <t>Pallet place</t>
@@ -418,12 +382,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{972A007A-A3DA-4657-8C28-FEC0D7042BB4}" name="storageLocationImportSchema_en" displayName="storageLocationImportSchema_en" ref="A1:F2" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:F2" xr:uid="{972A007A-A3DA-4657-8C28-FEC0D7042BB4}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{972A007A-A3DA-4657-8C28-FEC0D7042BB4}" name="storageLocationImportSchema_en" displayName="storageLocationImportSchema_en" ref="A1:E2" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:E2" xr:uid="{972A007A-A3DA-4657-8C28-FEC0D7042BB4}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5FC1A560-7B09-4250-B4DF-154BC607F61C}" name="Storage location" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4C462BD8-B96C-4D44-B055-985253D3BCC0}" name="Location number" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D9E3544A-5C5A-4F58-9A17-F73FA90207F1}" name="Product number"/>
     <tableColumn id="4" xr3:uid="{83D0D797-3968-49E6-9143-36C248C4E3AA}" name="Pallet place" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{E7476DAB-3BE8-4F08-9483-CFE4AED40F9B}" name="Max no of pallets" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{3C54247E-30B7-455A-9A1E-1A98E0CB6E75}" name="High storage location"/>
@@ -742,7 +705,7 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -752,35 +715,31 @@
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
@@ -797,7 +756,7 @@
           <x14:formula1>
             <xm:f>List!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2 F2</xm:sqref>
+          <xm:sqref>C2 E2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -820,17 +779,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/storageLocationImportSchema_en.xlsx
+++ b/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/storageLocationImportSchema_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lupo/qcadoo-src/mes/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krna/Projects/mes/mes-plugins/mes-plugins-material-flow-resources/src/main/resources/materialFlowResources/public/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B143B7-F040-F34D-914B-A2BC71F6C3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D4D19-BBD4-5848-BB1C-3E4A25399CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{2222F829-432A-A44B-82E1-02E1D4AC7904}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{2222F829-432A-A44B-82E1-02E1D4AC7904}"/>
   </bookViews>
   <sheets>
     <sheet name="Storage location" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
           <rPr>
             <b/>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
@@ -115,7 +115,7 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
@@ -129,7 +129,7 @@
           <rPr>
             <b/>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
@@ -139,7 +139,7 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
@@ -149,7 +149,7 @@
           <rPr>
             <b/>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
@@ -158,7 +158,7 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
             <family val="2"/>
           </rPr>
@@ -203,12 +203,6 @@
     <t>Location number</t>
   </si>
   <si>
-    <t>Pallet place</t>
-  </si>
-  <si>
-    <t>Max no of pallets</t>
-  </si>
-  <si>
     <t>High storage location</t>
   </si>
   <si>
@@ -220,12 +214,18 @@
   <si>
     <t>no</t>
   </si>
+  <si>
+    <t>Storage in load units</t>
+  </si>
+  <si>
+    <t>Max no of load units</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +270,19 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,8 +400,8 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5FC1A560-7B09-4250-B4DF-154BC607F61C}" name="Storage location" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4C462BD8-B96C-4D44-B055-985253D3BCC0}" name="Location number" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{83D0D797-3968-49E6-9143-36C248C4E3AA}" name="Pallet place" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E7476DAB-3BE8-4F08-9483-CFE4AED40F9B}" name="Max no of pallets" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{83D0D797-3968-49E6-9143-36C248C4E3AA}" name="Storage in load units" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E7476DAB-3BE8-4F08-9483-CFE4AED40F9B}" name="Max no of load units" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{3C54247E-30B7-455A-9A1E-1A98E0CB6E75}" name="High storage location"/>
   </tableColumns>
   <tableStyleInfo name="Styl tabeli 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -406,9 +419,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -446,7 +459,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -552,7 +565,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -694,7 +707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -708,7 +721,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,13 +741,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -779,17 +792,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
